--- a/results/Results_PSO_PID_Test_5.xlsx
+++ b/results/Results_PSO_PID_Test_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SettlingTime</t>
+          <t>SettlingTime_z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Overshoot</t>
+          <t>SettlingTime_phi</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RiseTime</t>
+          <t>SettlingTime_theta</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SteadyError</t>
+          <t>SettlingTime_psi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ITSE</t>
+          <t>Overshoot_z</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IAE</t>
+          <t>Overshoot_phi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Overshoot_theta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overshoot_psi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_phi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_theta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_psi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_z</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_phi</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_theta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_psi</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_z</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_phi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_theta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_psi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_z</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_phi</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_theta</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_psi</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_z</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_phi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_theta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_psi</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_z</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_z</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_z</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_phi</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_phi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_phi</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_theta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_theta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_theta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_psi</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_psi</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_psi</t>
         </is>
       </c>
     </row>
@@ -485,28 +650,127 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03643276186429513</v>
+        <v>0.3370223070452443</v>
       </c>
       <c r="C2" t="n">
-        <v>1.082164328657315</v>
+        <v>2.044088176352705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2732860972036288</v>
+        <v>2.084168336673347</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014028056112225</v>
+        <v>1.88376753507014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007834449234133846</v>
+        <v>1.282565130260521</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02080079632477094</v>
+        <v>4.409167209805553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3064770527665719</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09162120349748225</v>
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5210420841683366</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.001637834432126399</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0001219863922471176</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.321570258674493e-05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0005027383337704517</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0124607874278818</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.001513413868049593</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.001097133288133507</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.00628471803514413</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2249536094154019</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.06800532443554178</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.05284421400577684</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1609669707958448</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.08334346490306069</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02056344982517876</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0158115793310985</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.06784145575009873</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14.93312211826804</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9884458424791011</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.967846328695085</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.08425114046736779</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8165838670887391</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9.390671810323525</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.07110985992675796</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.990139056223609</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8.489691830480764</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.001016538710401621</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.023764974259836</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +778,127 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03804715007194497</v>
+        <v>0.3132551589710559</v>
       </c>
       <c r="C3" t="n">
-        <v>1.062124248496994</v>
+        <v>2.324649298597194</v>
       </c>
       <c r="D3" t="n">
-        <v>1.148083137604661</v>
+        <v>0.4809619238476954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7014028056112225</v>
+        <v>1.663326653306613</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001821157394400015</v>
+        <v>0.9218436873747494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01799361411752668</v>
+        <v>4.856406217291798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2667198747751059</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09117405498478109</v>
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5210420841683366</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0048314909286921</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.001477290347390261</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.577274988167625e-07</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.002653647683291365</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01407067926923978</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.000253938430560823</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.002152896849375908</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01449346027216582</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2572805741782268</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03565924195083409</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07018228869908713</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2413583739317271</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.08352959475729627</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01251290446539094</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02046898703971235</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.08848580186773002</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.98704760268844</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9837830380951138</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.324363138777882</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.518589780848423</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>5.962479449301143</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09138907030680547</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.853124259912021</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.275062497725383</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.32068490605989</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +906,127 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07657391335736942</v>
+        <v>0.5106397449708883</v>
       </c>
       <c r="C4" t="n">
-        <v>2.124248496993988</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.472719405567948</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6012024048096192</v>
+        <v>1.56312625250501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009982549654703821</v>
+        <v>0.9819639278557114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01444579873833482</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2370517035892594</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08663625439543303</v>
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4809619238476954</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1790307939788304</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.959325671666012e-07</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.679705180190894e-07</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.002839108083748727</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.628444931137416</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.001756475937950603</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.00226494067435532</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01604363982735636</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.825268416512253</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05736881057918657</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.07058827515247772</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2540706925693383</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1941047932057703</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02150981015474661</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02118677408070673</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.09060442157398393</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.7221198614426985</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.259351618249458</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.586761762019531</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.09919064712260822</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.311480445660903</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>6.563128627783348</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.896850019004404</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.005031271455779</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.283065601555962</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +1034,127 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0276128929194444</v>
+        <v>0.3500439628361702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8416833667334669</v>
+        <v>1.24248496993988</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.803607214428858</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5611222444889779</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003541789623059751</v>
+        <v>1.042084168336673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01302640901162071</v>
+        <v>0.02894460761655449</v>
       </c>
       <c r="H5" t="n">
-        <v>0.231028628139391</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08422313548838035</v>
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8016032064128257</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.008472711197167429</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.667375484288497e-05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.006385275981961743</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.001279301807394395</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.02502209364622462</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.004175443699034396</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.005304061987455412</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.005963813138324175</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3330088207568501</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.09718197123830648</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.15091458608358</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1557455454643846</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.09597844745466196</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0293140482141768</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02609960907443571</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.07189096256872815</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9.567621974707956</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9834325975002443</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.666802039968786</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.15347089549789</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.08337103340581491</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.7180275443011339</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.8554497011893437</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.2602468889174878</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.726922395824423</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.001074096963194705</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.530805780747502</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +1162,127 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02750707540221114</v>
+        <v>0.329114462197065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8016032064128256</v>
+        <v>2.164328657314629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3974641060957129</v>
+        <v>2.124248496993988</v>
       </c>
       <c r="E6" t="n">
+        <v>1.543086172344689</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8416833667334669</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.277858012842816</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.5410821643286573</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.002337668186028191</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01220579414767816</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2217763714948514</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08324079019656931</v>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.005999617444818267</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.903063724356391e-06</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.317222749199682e-05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0008022731256450988</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01577617964442343</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.00191965060008188</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0009654542230040108</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0041360772603413</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.273845345903368</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.06971789669510191</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.05004850021536732</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1264804062367061</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.08427660608102723</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01984133469468988</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0174185164674158</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.06615397653951678</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9818791268102252</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.247027848529747</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.09457181257131472</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.105636594744357</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.990369763383024</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
